--- a/attendance/attendance.xlsx
+++ b/attendance/attendance.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Attendance" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,16 +454,56 @@
           <t>Attendance</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Marked At</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Confidence</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Deepfake Score</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Anti-Spoof Score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Combined Score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Frames Used</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Decision</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Detection Method</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rahul Jaluthria</t>
+          <t>Chirag Singh</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>24BCY70054</t>
+          <t>24BCY70058</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -471,47 +511,93 @@
           <t>24BCY116-B</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lakshay Jasrotia</t>
+          <t>Mayank Agarwal</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>24BCY70099</t>
+          <t>24BCY70057</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>24BCY117-A</t>
+          <t>24BCY116-B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Navraj Singh</t>
+          <t>Rahul Jaluthria</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>24BCY70076</t>
+          <t>24BCY70054</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>24BCY117-A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>24BCY116-B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2026-01-22 11:56:47</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>71.39</v>
+      </c>
+      <c r="G4" t="n">
+        <v>82.40026150430951</v>
+      </c>
+      <c r="H4" t="n">
+        <v>60.37714285714285</v>
+      </c>
+      <c r="I4" t="n">
+        <v>71.38870218072618</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>REAL</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>combined_multi_frame</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -529,61 +615,77 @@
           <t>24BCY116-B</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chirag Singh</t>
+          <t>Harshveer Singh</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24BCY70058</t>
+          <t>24BCY70100</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24BCY116-B</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+          <t>24BCY117-A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mayank Agarwal</t>
+          <t>Lakshay Jasrotia</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24BCY70057</t>
+          <t>24BCY70099</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24BCY116-B</t>
+          <t>24BCY117-A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Harshveer Singh</t>
+          <t>Navraj Singh</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>24BCY70100</t>
+          <t>24BCY70076</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -592,6 +694,14 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/attendance/attendance.xlsx
+++ b/attendance/attendance.xlsx
@@ -563,41 +563,15 @@
           <t>24BCY116-B</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2026-01-22 11:56:47</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>71.39</v>
-      </c>
-      <c r="G4" t="n">
-        <v>82.40026150430951</v>
-      </c>
-      <c r="H4" t="n">
-        <v>60.37714285714285</v>
-      </c>
-      <c r="I4" t="n">
-        <v>71.38870218072618</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>REAL</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>combined_multi_frame</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
